--- a/矩阵线图.xlsx
+++ b/矩阵线图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28117" windowHeight="12360" activeTab="2"/>
+    <workbookView windowWidth="28117" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="1" r:id="rId1"/>
@@ -169,8 +169,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -203,9 +203,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,22 +232,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,22 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -270,10 +270,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,21 +295,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -323,23 +332,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +426,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,7 +456,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,19 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,31 +540,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,108 +630,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -635,43 +653,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -717,15 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -744,8 +716,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,11 +750,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,19 +776,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,112 +797,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -929,38 +910,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -971,22 +943,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1016,13 +985,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1465,32 +1446,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="15" customFormat="1" spans="1:9">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18">
+      <c r="B1" s="15">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15">
         <v>2</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="15">
         <v>3</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="15">
         <v>4</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="15">
         <v>5</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="15">
         <v>6</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="15">
         <v>7</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="15">
         <v>8</v>
       </c>
     </row>
@@ -1697,53 +1678,53 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="1" spans="1:16">
-      <c r="A14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18">
+    <row r="14" s="15" customFormat="1" spans="1:16">
+      <c r="A14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
         <v>2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>4</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <v>5</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <v>6</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="15">
         <v>7</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <v>8</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <v>9</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <v>10</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <v>11</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="15">
         <v>12</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="15">
         <v>13</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="15">
         <v>14</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="15">
         <v>15</v>
       </c>
     </row>
@@ -1946,8 +1927,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" s="18" customFormat="1" spans="1:1">
-      <c r="A24" s="18" t="s">
+    <row r="24" s="15" customFormat="1" spans="1:1">
+      <c r="A24" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1955,31 +1936,31 @@
       <c r="A25" s="33">
         <v>1</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20">
-        <v>1</v>
-      </c>
-      <c r="D25" s="20">
-        <v>1</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20">
-        <v>1</v>
-      </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1987,287 +1968,287 @@
       <c r="A26" s="33">
         <v>2</v>
       </c>
-      <c r="B26" s="20">
-        <v>1</v>
-      </c>
-      <c r="C26" s="20">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20">
-        <v>1</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20">
-        <v>1</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20">
-        <v>1</v>
-      </c>
-      <c r="J26" s="20">
-        <v>1</v>
-      </c>
-      <c r="K26" s="20">
-        <v>1</v>
-      </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20">
-        <v>1</v>
-      </c>
-      <c r="P26" s="20"/>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="33">
         <v>3</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="D27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1</v>
-      </c>
-      <c r="H27" s="20">
-        <v>1</v>
-      </c>
-      <c r="I27" s="20">
-        <v>1</v>
-      </c>
-      <c r="J27" s="20">
-        <v>1</v>
-      </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="33">
         <v>4</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20">
-        <v>1</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20">
-        <v>1</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20">
-        <v>1</v>
-      </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20">
-        <v>1</v>
-      </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="33">
         <v>5</v>
       </c>
-      <c r="B29" s="20">
-        <v>1</v>
-      </c>
-      <c r="C29" s="20">
-        <v>1</v>
-      </c>
-      <c r="D29" s="20">
-        <v>1</v>
-      </c>
-      <c r="E29" s="20">
-        <v>1</v>
-      </c>
-      <c r="F29" s="20">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20">
-        <v>1</v>
-      </c>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="J29" s="20">
-        <v>1</v>
-      </c>
-      <c r="K29" s="20">
-        <v>1</v>
-      </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20">
-        <v>1</v>
-      </c>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="33">
         <v>6</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20">
-        <v>1</v>
-      </c>
-      <c r="D30" s="20">
-        <v>1</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1</v>
-      </c>
-      <c r="F30" s="20">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20">
-        <v>1</v>
-      </c>
-      <c r="H30" s="20">
-        <v>1</v>
-      </c>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
-      <c r="J30" s="20">
-        <v>1</v>
-      </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="33">
         <v>7</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20">
-        <v>1</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20">
-        <v>1</v>
-      </c>
-      <c r="M31" s="20">
-        <v>1</v>
-      </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="33">
         <v>8</v>
       </c>
-      <c r="B32" s="20">
-        <v>1</v>
-      </c>
-      <c r="C32" s="20">
-        <v>1</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20">
-        <v>1</v>
-      </c>
-      <c r="F32" s="20">
-        <v>1</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
-      <c r="H32" s="20">
-        <v>1</v>
-      </c>
-      <c r="I32" s="20">
-        <v>1</v>
-      </c>
-      <c r="J32" s="20">
-        <v>1</v>
-      </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20">
-        <v>1</v>
-      </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,8 +2262,8 @@
   <sheetPr/>
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2291,95 +2272,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19">
+      <c r="B1" s="16">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16">
         <v>2</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>3</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>4</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="16">
         <v>5</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>6</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="16">
         <v>7</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="16">
         <v>8</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="20">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>14</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="1">
         <v>17</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="1">
         <v>48</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="2"/>
-      <c r="B3" s="20">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="1">
         <v>27</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="1">
         <v>35</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="1">
         <v>31</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="1">
         <v>18</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="1">
         <v>49</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="1">
         <v>64</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="P3">
@@ -2387,271 +2368,272 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="2"/>
-      <c r="B4" s="20">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1">
         <v>13</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="1">
         <v>28</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="1">
         <v>36</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="1">
         <v>32</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="1">
         <v>19</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="1">
         <v>53</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="1">
         <v>52</v>
       </c>
-      <c r="O4" s="24"/>
+      <c r="O4" s="20"/>
       <c r="P4">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="20">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1">
         <v>12</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="1">
         <v>43</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="1">
         <v>41</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="1">
         <v>34</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="1">
         <v>20</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="1">
         <v>63</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="1">
         <v>51</v>
       </c>
-      <c r="O5" s="24"/>
+      <c r="O5" s="20"/>
       <c r="P5">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="20">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1">
         <v>56</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="1">
         <v>59</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="1">
         <v>60</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="1">
         <v>37</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="1">
         <v>23</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="1">
         <v>62</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="1">
         <v>50</v>
       </c>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="20">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1">
         <v>57</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="1">
         <v>21</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="1">
         <v>9</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="1">
         <v>61</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="1">
         <v>38</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="1">
         <v>24</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>22</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>39</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>16</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="1">
         <v>11</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>40</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="1">
         <v>26</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>30</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>54</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>33</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="19">
-        <v>1</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
         <v>2</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>3</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>4</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>5</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <v>6</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="16">
         <v>7</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="16">
         <v>8</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <v>9</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="16">
         <v>10</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="16">
         <v>11</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="16">
         <v>12</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="16">
         <v>13</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="16">
         <v>14</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="16">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="2"/>
-      <c r="B15" s="20">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="1">
         <v>13</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="1">
         <v>11</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="1">
         <v>8</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="J15" s="20">
-        <v>1</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
         <v>54</v>
       </c>
       <c r="L15" s="30">
@@ -2660,7 +2642,7 @@
       <c r="M15" s="30">
         <v>62</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="1">
         <v>61</v>
       </c>
       <c r="O15" s="30">
@@ -2671,35 +2653,35 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="1">
         <v>28</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="1">
         <v>12</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="1">
         <v>25</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="1">
         <v>23</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="1">
         <v>6</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="1">
         <v>19</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="1">
         <v>18</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="1">
         <v>2</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="1">
         <v>43</v>
       </c>
       <c r="L16" s="30">
@@ -2708,183 +2690,183 @@
       <c r="M16" s="30">
         <v>60</v>
       </c>
-      <c r="N16" s="20"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="2"/>
-      <c r="B17" s="20">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1">
         <v>42</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="1">
         <v>9</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="1">
         <v>27</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="1">
         <v>39</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="1">
         <v>37</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="1">
         <v>21</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="1">
         <v>33</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="1">
         <v>32</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="1">
         <v>16</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="20"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="2"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>24</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="1">
         <v>41</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="1">
         <v>52</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="1">
         <v>50</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="1">
         <v>35</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="1">
         <v>46</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="1">
         <v>45</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="1">
         <v>17</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="20"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="2"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <v>38</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="1">
         <v>53</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
         <v>7</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="1">
         <v>48</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
         <v>30</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="1">
         <v>31</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="20"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="2"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
         <v>51</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="1">
         <v>26</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
         <v>22</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="1">
         <v>20</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
         <v>44</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="20"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="2"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
         <v>40</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
         <v>36</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="1">
         <v>34</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
         <v>56</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
-      <c r="N21" s="20"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="2"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
         <v>49</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="1">
         <v>47</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="20"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
     </row>
@@ -2901,107 +2883,107 @@
       <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="1">
         <v>60</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
-      <c r="N25" s="20"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="2"/>
-      <c r="B26" s="20">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1">
         <v>62</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
         <v>63</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
-      <c r="N26" s="20"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="2"/>
-      <c r="B27" s="20">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1">
         <v>57</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
         <v>59</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
         <v>64</v>
       </c>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
-      <c r="N27" s="20"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
     </row>
-    <row r="28" s="18" customFormat="1" spans="1:27">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22" t="s">
+    <row r="28" s="15" customFormat="1" spans="1:27">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19">
         <v>14</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19">
         <v>11</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
     </row>
     <row r="29" spans="12:16">
       <c r="L29" s="31"/>
@@ -3010,268 +2992,268 @@
       <c r="P29" s="31"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="19">
-        <v>1</v>
-      </c>
-      <c r="B31" s="25">
-        <v>1</v>
-      </c>
-      <c r="C31" s="20">
-        <v>1</v>
-      </c>
-      <c r="D31" s="20">
-        <v>1</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20">
-        <v>1</v>
-      </c>
-      <c r="K31" s="20"/>
+      <c r="A31" s="16">
+        <v>1</v>
+      </c>
+      <c r="B31" s="21">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
-      <c r="N31" s="20"/>
+      <c r="N31" s="1"/>
       <c r="O31" s="30"/>
       <c r="P31" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="19">
+      <c r="A32" s="16">
         <v>2</v>
       </c>
-      <c r="B32" s="20">
-        <v>1</v>
-      </c>
-      <c r="C32" s="20">
-        <v>1</v>
-      </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="25">
-        <v>1</v>
-      </c>
-      <c r="F32" s="20">
-        <v>1</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20">
-        <v>1</v>
-      </c>
-      <c r="J32" s="20">
-        <v>1</v>
-      </c>
-      <c r="K32" s="20">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
         <v>1</v>
       </c>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
-      <c r="N32" s="20"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="32">
         <v>1</v>
       </c>
       <c r="P32" s="30"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="19">
+      <c r="A33" s="16">
         <v>3</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20">
-        <v>1</v>
-      </c>
-      <c r="D33" s="20">
-        <v>1</v>
-      </c>
-      <c r="E33" s="20">
-        <v>1</v>
-      </c>
-      <c r="F33" s="20">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20">
-        <v>1</v>
-      </c>
-      <c r="H33" s="20">
-        <v>1</v>
-      </c>
-      <c r="I33" s="20">
-        <v>1</v>
-      </c>
-      <c r="J33" s="20">
-        <v>1</v>
-      </c>
-      <c r="K33" s="20"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
-      <c r="N33" s="20"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="19">
+      <c r="A34" s="16">
         <v>4</v>
       </c>
-      <c r="B34" s="25">
-        <v>1</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20">
-        <v>1</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20">
-        <v>1</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20">
-        <v>1</v>
-      </c>
-      <c r="K34" s="20"/>
+      <c r="B34" s="21">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="30"/>
       <c r="M34" s="32">
         <v>1</v>
       </c>
-      <c r="N34" s="20"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="19">
+      <c r="A35" s="16">
         <v>5</v>
       </c>
-      <c r="B35" s="20">
-        <v>1</v>
-      </c>
-      <c r="C35" s="20">
-        <v>1</v>
-      </c>
-      <c r="D35" s="20">
-        <v>1</v>
-      </c>
-      <c r="E35" s="20">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20">
-        <v>1</v>
-      </c>
-      <c r="G35" s="20">
-        <v>1</v>
-      </c>
-      <c r="H35" s="20">
-        <v>1</v>
-      </c>
-      <c r="I35" s="20">
-        <v>1</v>
-      </c>
-      <c r="J35" s="20">
-        <v>1</v>
-      </c>
-      <c r="K35" s="20">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
         <v>1</v>
       </c>
       <c r="L35" s="30"/>
       <c r="M35" s="32"/>
-      <c r="N35" s="20">
+      <c r="N35" s="1">
         <v>1</v>
       </c>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="19">
+      <c r="A36" s="16">
         <v>6</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20">
-        <v>1</v>
-      </c>
-      <c r="D36" s="20">
-        <v>1</v>
-      </c>
-      <c r="E36" s="20">
-        <v>1</v>
-      </c>
-      <c r="F36" s="20">
-        <v>1</v>
-      </c>
-      <c r="G36" s="20">
-        <v>1</v>
-      </c>
-      <c r="H36" s="20">
-        <v>1</v>
-      </c>
-      <c r="I36" s="20">
-        <v>1</v>
-      </c>
-      <c r="J36" s="20">
-        <v>1</v>
-      </c>
-      <c r="K36" s="20"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1"/>
       <c r="L36" s="30"/>
       <c r="M36" s="32"/>
-      <c r="N36" s="20"/>
+      <c r="N36" s="1"/>
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="19">
+      <c r="A37" s="16">
         <v>7</v>
       </c>
-      <c r="B37" s="25">
-        <v>1</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20">
-        <v>1</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20">
-        <v>1</v>
-      </c>
-      <c r="G37" s="20">
-        <v>1</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="25">
+      <c r="B37" s="21">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="21">
         <v>1</v>
       </c>
       <c r="L37" s="32">
@@ -3280,668 +3262,668 @@
       <c r="M37" s="32">
         <v>1</v>
       </c>
-      <c r="N37" s="20"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="19">
+      <c r="A38" s="16">
         <v>8</v>
       </c>
-      <c r="B38" s="20">
-        <v>1</v>
-      </c>
-      <c r="C38" s="20">
-        <v>1</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20">
-        <v>1</v>
-      </c>
-      <c r="F38" s="20">
-        <v>1</v>
-      </c>
-      <c r="G38" s="20">
-        <v>1</v>
-      </c>
-      <c r="H38" s="20">
-        <v>1</v>
-      </c>
-      <c r="I38" s="20">
-        <v>1</v>
-      </c>
-      <c r="J38" s="20">
-        <v>1</v>
-      </c>
-      <c r="K38" s="25">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="21">
         <v>1</v>
       </c>
       <c r="L38" s="32">
         <v>1</v>
       </c>
       <c r="M38" s="30"/>
-      <c r="N38" s="20"/>
+      <c r="N38" s="1"/>
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27">
-        <v>1</v>
-      </c>
-      <c r="C44" s="27">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23">
+        <v>1</v>
+      </c>
+      <c r="C44" s="23">
         <v>2</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="23">
         <v>3</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="23">
         <v>4</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="23">
         <v>5</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="23">
         <v>6</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="23">
         <v>7</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="23">
         <v>8</v>
       </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
     </row>
     <row r="45" ht="40" customHeight="1" spans="1:21">
-      <c r="A45" s="27">
-        <v>1</v>
-      </c>
-      <c r="B45" s="28">
+      <c r="A45" s="23">
+        <v>1</v>
+      </c>
+      <c r="B45" s="24">
         <v>57</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="25">
         <v>15</v>
       </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29">
+      <c r="D45" s="26"/>
+      <c r="E45" s="25">
         <v>60</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="26">
         <v>14</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="28">
+      <c r="G45" s="27"/>
+      <c r="H45" s="24">
         <v>62</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="27">
         <v>42</v>
       </c>
-      <c r="J45" s="24"/>
-      <c r="K45" s="23">
-        <v>1</v>
-      </c>
-      <c r="L45" s="23">
+      <c r="J45" s="20"/>
+      <c r="K45" s="19">
+        <v>1</v>
+      </c>
+      <c r="L45" s="19">
         <v>2</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="19">
         <v>3</v>
       </c>
-      <c r="N45" s="23">
+      <c r="N45" s="19">
         <v>4</v>
       </c>
-      <c r="O45" s="23">
+      <c r="O45" s="19">
         <v>5</v>
       </c>
-      <c r="P45" s="23">
+      <c r="P45" s="19">
         <v>6</v>
       </c>
-      <c r="Q45" s="23">
+      <c r="Q45" s="19">
         <v>7</v>
       </c>
-      <c r="R45" s="23">
+      <c r="R45" s="19">
         <v>8</v>
       </c>
-      <c r="S45" s="23">
+      <c r="S45" s="19">
         <v>9</v>
       </c>
-      <c r="T45" s="23">
+      <c r="T45" s="19">
         <v>10</v>
       </c>
-      <c r="U45" s="23">
+      <c r="U45" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="46" ht="40" customHeight="1" spans="1:21">
-      <c r="A46" s="27">
+      <c r="A46" s="23">
         <v>2</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="25">
         <v>13</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="25">
         <v>28</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="26">
         <v>9</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29">
+      <c r="E46" s="25"/>
+      <c r="F46" s="26">
         <v>38</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="27">
         <v>24</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29">
+      <c r="H46" s="25"/>
+      <c r="I46" s="27">
         <v>51</v>
       </c>
-      <c r="J46" s="24"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
     </row>
     <row r="47" ht="40" customHeight="1" spans="1:21">
-      <c r="A47" s="27">
+      <c r="A47" s="23">
         <v>3</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="24">
         <v>12</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="25">
         <v>27</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="26">
         <v>11</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="25">
         <v>41</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="26">
         <v>40</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="27">
         <v>26</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="24">
         <v>53</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="23">
+      <c r="I47" s="27"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="19">
         <v>12</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="19">
         <v>13</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="19">
         <v>14</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="19">
         <v>15</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47" s="19">
         <v>16</v>
       </c>
-      <c r="P47" s="23">
+      <c r="P47" s="19">
         <v>17</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="19">
         <v>18</v>
       </c>
-      <c r="R47" s="23">
+      <c r="R47" s="19">
         <v>19</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S47" s="19">
         <v>20</v>
       </c>
-      <c r="T47" s="23">
+      <c r="T47" s="19">
         <v>21</v>
       </c>
-      <c r="U47" s="23">
+      <c r="U47" s="19">
         <v>22</v>
       </c>
     </row>
     <row r="48" ht="40" customHeight="1" spans="1:21">
-      <c r="A48" s="27">
+      <c r="A48" s="23">
         <v>4</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25">
         <v>59</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="26">
         <v>10</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29">
+      <c r="E48" s="25"/>
+      <c r="F48" s="26">
         <v>39</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="27">
         <v>25</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29">
+      <c r="H48" s="25"/>
+      <c r="I48" s="27">
         <v>52</v>
       </c>
-      <c r="J48" s="24"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
     </row>
     <row r="49" ht="40" customHeight="1" spans="1:21">
-      <c r="A49" s="27">
+      <c r="A49" s="23">
         <v>5</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="24">
         <v>7</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="25">
         <v>22</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="26">
         <v>8</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="25">
         <v>36</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="26">
         <v>37</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="27">
         <v>23</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="24">
         <v>49</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="27">
         <v>50</v>
       </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="23">
+      <c r="J49" s="20"/>
+      <c r="K49" s="19">
         <v>23</v>
       </c>
-      <c r="L49" s="23">
+      <c r="L49" s="19">
         <v>24</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="19">
         <v>25</v>
       </c>
-      <c r="N49" s="23">
+      <c r="N49" s="19">
         <v>26</v>
       </c>
-      <c r="O49" s="23">
+      <c r="O49" s="19">
         <v>27</v>
       </c>
-      <c r="P49" s="23">
+      <c r="P49" s="19">
         <v>28</v>
       </c>
-      <c r="Q49" s="23">
+      <c r="Q49" s="19">
         <v>29</v>
       </c>
-      <c r="R49" s="23">
+      <c r="R49" s="19">
         <v>30</v>
       </c>
-      <c r="S49" s="23">
+      <c r="S49" s="19">
         <v>31</v>
       </c>
-      <c r="T49" s="23">
+      <c r="T49" s="19">
         <v>32</v>
       </c>
-      <c r="U49" s="23">
+      <c r="U49" s="19">
         <v>33</v>
       </c>
     </row>
     <row r="50" ht="40" customHeight="1" spans="1:21">
-      <c r="A50" s="27">
+      <c r="A50" s="23">
         <v>6</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="27">
         <v>6</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="27">
         <v>21</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="28">
         <v>5</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="27">
         <v>35</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="28">
         <v>34</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="28">
         <v>20</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="27">
         <v>48</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="28">
         <v>47</v>
       </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
     </row>
     <row r="51" ht="40" customHeight="1" spans="1:21">
-      <c r="A51" s="27">
+      <c r="A51" s="23">
         <v>7</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="28">
         <v>4</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="28">
         <v>33</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="28">
         <v>19</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29">
+      <c r="H51" s="26"/>
+      <c r="I51" s="28">
         <v>46</v>
       </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="23">
+      <c r="J51" s="20"/>
+      <c r="K51" s="19">
         <v>34</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="19">
         <v>35</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="19">
         <v>36</v>
       </c>
-      <c r="N51" s="23">
+      <c r="N51" s="19">
         <v>37</v>
       </c>
-      <c r="O51" s="23">
+      <c r="O51" s="19">
         <v>38</v>
       </c>
-      <c r="P51" s="23">
+      <c r="P51" s="19">
         <v>39</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="Q51" s="19">
         <v>40</v>
       </c>
-      <c r="R51" s="23">
+      <c r="R51" s="19">
         <v>41</v>
       </c>
-      <c r="S51" s="23">
+      <c r="S51" s="19">
         <v>42</v>
       </c>
-      <c r="T51" s="23">
+      <c r="T51" s="19">
         <v>43</v>
       </c>
-      <c r="U51" s="23">
+      <c r="U51" s="19">
         <v>44</v>
       </c>
     </row>
     <row r="52" ht="40" customHeight="1" spans="1:21">
-      <c r="A52" s="27">
+      <c r="A52" s="23">
         <v>8</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27">
         <v>30</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="28">
         <v>3</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29">
+      <c r="E52" s="27"/>
+      <c r="F52" s="28">
         <v>32</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G52" s="28">
         <v>18</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29">
+      <c r="H52" s="27"/>
+      <c r="I52" s="28">
         <v>45</v>
       </c>
-      <c r="J52" s="24"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
     </row>
     <row r="53" ht="40" customHeight="1" spans="1:21">
-      <c r="A53" s="27">
+      <c r="A53" s="23">
         <v>9</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="26">
         <v>56</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="26">
         <v>16</v>
       </c>
       <c r="D53" s="28">
         <v>2</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="26">
         <v>1</v>
       </c>
       <c r="F53" s="28">
         <v>31</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="28">
         <v>17</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29">
+      <c r="H53" s="26"/>
+      <c r="I53" s="28">
         <v>44</v>
       </c>
-      <c r="J53" s="24"/>
-      <c r="K53" s="23">
+      <c r="J53" s="20"/>
+      <c r="K53" s="19">
         <v>45</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="19">
         <v>46</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="19">
         <v>47</v>
       </c>
-      <c r="N53" s="23">
+      <c r="N53" s="19">
         <v>48</v>
       </c>
-      <c r="O53" s="23">
+      <c r="O53" s="19">
         <v>49</v>
       </c>
-      <c r="P53" s="23">
+      <c r="P53" s="19">
         <v>50</v>
       </c>
-      <c r="Q53" s="23">
+      <c r="Q53" s="19">
         <v>51</v>
       </c>
-      <c r="R53" s="23">
+      <c r="R53" s="19">
         <v>52</v>
       </c>
-      <c r="S53" s="23">
+      <c r="S53" s="19">
         <v>53</v>
       </c>
-      <c r="T53" s="23">
+      <c r="T53" s="19">
         <v>54</v>
       </c>
-      <c r="U53" s="23">
+      <c r="U53" s="19">
         <v>55</v>
       </c>
     </row>
     <row r="54" ht="40" customHeight="1" spans="1:21">
-      <c r="A54" s="27">
+      <c r="A54" s="23">
         <v>10</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27">
         <v>43</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29">
+      <c r="D54" s="28"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28">
         <v>54</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29">
+      <c r="G54" s="28"/>
+      <c r="H54" s="27">
         <v>63</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="28">
         <v>64</v>
       </c>
-      <c r="J54" s="24"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
     </row>
     <row r="55" ht="40" customHeight="1" spans="1:21">
-      <c r="A55" s="27">
+      <c r="A55" s="23">
         <v>11</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="25">
         <v>61</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="23">
+      <c r="F55" s="26"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="19">
         <v>56</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="19">
         <v>57</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="19">
         <v>58</v>
       </c>
-      <c r="N55" s="23">
+      <c r="N55" s="19">
         <v>59</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O55" s="19">
         <v>60</v>
       </c>
-      <c r="P55" s="23">
+      <c r="P55" s="19">
         <v>61</v>
       </c>
-      <c r="Q55" s="23">
+      <c r="Q55" s="19">
         <v>62</v>
       </c>
-      <c r="R55" s="23">
+      <c r="R55" s="19">
         <v>63</v>
       </c>
-      <c r="S55" s="23">
+      <c r="S55" s="19">
         <v>64</v>
       </c>
-      <c r="T55" s="23">
+      <c r="T55" s="19">
         <v>65</v>
       </c>
-      <c r="U55" s="23">
+      <c r="U55" s="19">
         <v>66</v>
       </c>
     </row>
     <row r="56" ht="40" customHeight="1" spans="11:21">
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3965,697 +3947,757 @@
   <sheetPr/>
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="14:24">
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
     </row>
     <row r="2" spans="14:24">
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
     </row>
     <row r="3" spans="14:24">
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
     </row>
     <row r="4" spans="14:24">
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
     </row>
     <row r="5" spans="14:24">
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
     </row>
     <row r="6" spans="14:24">
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="14:24">
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="14:24">
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="14:24">
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="14:24">
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="4:24">
-      <c r="D11" s="1" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="5"/>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="5"/>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="K14" s="16"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="13"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="5"/>
-      <c r="D15" s="4" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="5"/>
-      <c r="D16" s="1" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="5"/>
-      <c r="D17" s="1" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="7"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="5"/>
-      <c r="D18" s="1" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="7"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="7"/>
-      <c r="D19" s="1" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="K20" s="17"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="4"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9"/>
-      <c r="D21" s="1" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="9"/>
-      <c r="B22" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="7"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="11"/>
-      <c r="D23" s="1" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-    </row>
-    <row r="24" spans="4:24">
-      <c r="D24" s="12" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="7"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="12" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-    </row>
-    <row r="25" spans="4:24">
-      <c r="D25" s="12" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="12" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
     </row>
     <row r="26" spans="14:24">
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
     </row>
     <row r="27" spans="14:24">
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
     </row>
     <row r="28" spans="14:19">
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
     </row>
     <row r="29" spans="14:19">
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
     </row>
     <row r="30" spans="14:19">
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
     </row>
     <row r="31" spans="14:19">
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="14:19">
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
     </row>
     <row r="33" spans="14:19">
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
     </row>
     <row r="34" spans="14:19">
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
     </row>
     <row r="35" spans="14:19">
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
     </row>
     <row r="36" spans="14:19">
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
     </row>
     <row r="37" spans="14:19">
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
     </row>
     <row r="38" spans="14:19">
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
     </row>
     <row r="39" spans="14:19">
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
     </row>
     <row r="40" spans="14:19">
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
     </row>
     <row r="41" spans="14:19">
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
     </row>
     <row r="42" spans="14:19">
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
     </row>
     <row r="43" spans="14:19">
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
     </row>
     <row r="44" spans="14:19">
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
     </row>
     <row r="45" spans="14:19">
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
